--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\GRANT 22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anonymous\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBA4514-D613-40C9-9E1F-35273480D273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,20 +581,10 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,10 +598,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,12 +624,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="36"/>
-    <cellStyle name="60% - Accent2 2" xfId="37"/>
-    <cellStyle name="60% - Accent3 2" xfId="38"/>
-    <cellStyle name="60% - Accent4 2" xfId="39"/>
-    <cellStyle name="60% - Accent5 2" xfId="40"/>
-    <cellStyle name="60% - Accent6 2" xfId="41"/>
+    <cellStyle name="60% - Accent1 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -650,7 +647,7 @@
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="35"/>
+    <cellStyle name="Neutral 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
@@ -933,300 +930,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="10"/>
+    <col min="2" max="2" width="14.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>49.9</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>1.8931</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>49.1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>1.8627</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>54.7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>1.9464999999999999</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>53.7</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>1.9541999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>58.4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>2.0005000000000002</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>57.1</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>2.0362</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>61.4</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>2.0444</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>59.8</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>2.1051000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>63.9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>2.0808</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>62.1</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>2.1644999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>65.900000000000006</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>2.1114999999999999</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>64</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>2.2174</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>67.599999999999994</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>2.1402999999999999</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>65.7</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>2.2664</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>69.2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>2.1711</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>67.3</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>2.3153999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>70.599999999999994</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>2.2054999999999998</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <v>68.7</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="5">
         <v>2.3650000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>72</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>2.2433000000000001</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>70.099999999999994</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>2.4157000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>73.3</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>2.2848999999999999</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>71.5</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
         <v>2.4676</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <v>74.5</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>2.3292999999999999</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>72.8</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <v>2.5207999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>75.7</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>2.3761999999999999</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>74</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="5">
         <v>2.5750000000000002</v>
       </c>
     </row>
@@ -1234,16 +1208,16 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>76.900000000000006</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>2.4260000000000002</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>75.2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="5">
         <v>2.6295999999999999</v>
       </c>
     </row>
@@ -1251,16 +1225,16 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="6">
         <v>78</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>2.4773000000000001</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="6">
         <v>76.400000000000006</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="5">
         <v>2.6840999999999999</v>
       </c>
     </row>
@@ -1268,16 +1242,16 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>79.099999999999994</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>2.5303</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
         <v>77.5</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="5">
         <v>2.7391999999999999</v>
       </c>
     </row>
@@ -1285,16 +1259,16 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="6">
         <v>80.2</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="5">
         <v>2.5844</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
         <v>78.599999999999994</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="5">
         <v>2.7944</v>
       </c>
     </row>
@@ -1302,16 +1276,16 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>81.2</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>2.6406000000000001</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>79.7</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="5">
         <v>2.8490000000000002</v>
       </c>
     </row>
@@ -1319,16 +1293,16 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="6">
         <v>82.3</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="5">
         <v>2.6972999999999998</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>80.7</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="5">
         <v>2.9039000000000001</v>
       </c>
     </row>
@@ -1336,16 +1310,16 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="6">
         <v>83.2</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="5">
         <v>2.7553000000000001</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>81.7</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="5">
         <v>2.9582000000000002</v>
       </c>
     </row>
@@ -1353,16 +1327,16 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="6">
         <v>84.2</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="5">
         <v>2.8140000000000001</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
         <v>82.7</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="5">
         <v>3.0129000000000001</v>
       </c>
     </row>
@@ -1370,16 +1344,16 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="6">
         <v>85.1</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="5">
         <v>2.8742000000000001</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
         <v>83.7</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="5">
         <v>3.0672000000000001</v>
       </c>
     </row>
@@ -1387,16 +1361,16 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="6">
         <v>86</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="5">
         <v>2.9342000000000001</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
         <v>84.6</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="5">
         <v>3.1202000000000001</v>
       </c>
     </row>
@@ -1404,16 +1378,16 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="6">
         <v>86.9</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="5">
         <v>2.9950999999999999</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>85.5</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="5">
         <v>3.1737000000000002</v>
       </c>
     </row>
@@ -1421,16 +1395,16 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="6">
         <v>87.1</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="5">
         <v>3.0550999999999999</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <v>85.7</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="5">
         <v>3.2267000000000001</v>
       </c>
     </row>
@@ -1438,16 +1412,16 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="6">
         <v>88</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="5">
         <v>3.1160000000000001</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <v>86.6</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="5">
         <v>3.2783000000000002</v>
       </c>
     </row>
@@ -1455,16 +1429,16 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="6">
         <v>88.8</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="5">
         <v>3.1757</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="6">
         <v>87.4</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="5">
         <v>3.33</v>
       </c>
     </row>
@@ -1472,16 +1446,16 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="6">
         <v>89.6</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="5">
         <v>3.2353000000000001</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="6">
         <v>88.3</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="5">
         <v>3.3812000000000002</v>
       </c>
     </row>
@@ -1489,16 +1463,16 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="6">
         <v>90.4</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="5">
         <v>3.2928000000000002</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="6">
         <v>89.1</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="5">
         <v>3.4312999999999998</v>
       </c>
     </row>
@@ -1506,16 +1480,16 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="6">
         <v>91.2</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="5">
         <v>3.3500999999999999</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="6">
         <v>89.9</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="5">
         <v>3.4809000000000001</v>
       </c>
     </row>
@@ -1523,16 +1497,16 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="6">
         <v>91.9</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="5">
         <v>3.4051999999999998</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="6">
         <v>90.7</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="5">
         <v>3.5301999999999998</v>
       </c>
     </row>
@@ -1540,16 +1514,16 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="6">
         <v>92.7</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="5">
         <v>3.4590999999999998</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="6">
         <v>91.4</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="5">
         <v>3.5781999999999998</v>
       </c>
     </row>
@@ -1557,16 +1531,16 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="6">
         <v>93.4</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="5">
         <v>3.5118</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="6">
         <v>92.2</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="5">
         <v>3.6259000000000001</v>
       </c>
     </row>
@@ -1574,16 +1548,16 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="6">
         <v>94.1</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="5">
         <v>3.5625</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="6">
         <v>92.9</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="5">
         <v>3.6724000000000001</v>
       </c>
     </row>
@@ -1591,16 +1565,16 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="6">
         <v>94.8</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="5">
         <v>3.6120000000000001</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="6">
         <v>93.6</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="5">
         <v>3.7185999999999999</v>
       </c>
     </row>
@@ -1608,16 +1582,16 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="6">
         <v>95.4</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="5">
         <v>3.6604000000000001</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="6">
         <v>94.4</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="5">
         <v>3.7637999999999998</v>
       </c>
     </row>
@@ -1625,16 +1599,16 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="6">
         <v>96.1</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="5">
         <v>3.7069000000000001</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="6">
         <v>95.1</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="5">
         <v>3.8077999999999999</v>
       </c>
     </row>
@@ -1642,16 +1616,16 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="6">
         <v>96.7</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="5">
         <v>3.7523</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="6">
         <v>95.7</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="5">
         <v>3.8525999999999998</v>
       </c>
     </row>
@@ -1659,16 +1633,16 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="6">
         <v>97.4</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="5">
         <v>3.7976000000000001</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="6">
         <v>96.4</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="5">
         <v>3.8963000000000001</v>
       </c>
     </row>
@@ -1676,16 +1650,16 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="6">
         <v>98</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="5">
         <v>3.8409</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="6">
         <v>97.1</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="5">
         <v>3.9388999999999998</v>
       </c>
     </row>
@@ -1693,16 +1667,16 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="6">
         <v>98.6</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="5">
         <v>3.8831000000000002</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="6">
         <v>97.7</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="5">
         <v>3.9813000000000001</v>
       </c>
     </row>
@@ -1710,16 +1684,16 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="6">
         <v>99.2</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="5">
         <v>3.9241999999999999</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="6">
         <v>98.4</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="5">
         <v>4.0236000000000001</v>
       </c>
     </row>
@@ -1727,16 +1701,16 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="6">
         <v>99.9</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="5">
         <v>3.9651000000000001</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="6">
         <v>99</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="5">
         <v>4.0658000000000003</v>
       </c>
     </row>
@@ -1744,16 +1718,16 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="6">
         <v>100.4</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="5">
         <v>4.0038999999999998</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="6">
         <v>99.7</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="5">
         <v>4.1067999999999998</v>
       </c>
     </row>
@@ -1761,16 +1735,16 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="6">
         <v>101</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="5">
         <v>4.0434999999999999</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="6">
         <v>100.3</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="5">
         <v>4.1475999999999997</v>
       </c>
     </row>
@@ -1778,16 +1752,16 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="6">
         <v>101.6</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="5">
         <v>4.0810000000000004</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="6">
         <v>100.9</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="5">
         <v>4.1882999999999999</v>
       </c>
     </row>
@@ -1795,16 +1769,16 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="6">
         <v>102.2</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="5">
         <v>4.1193999999999997</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="6">
         <v>101.5</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="5">
         <v>4.2279</v>
       </c>
     </row>
@@ -1812,16 +1786,16 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="6">
         <v>102.8</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="5">
         <v>4.1566999999999998</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="6">
         <v>102.1</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="5">
         <v>4.2683</v>
       </c>
     </row>
@@ -1829,16 +1803,16 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="6">
         <v>103.3</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="5">
         <v>4.1940999999999997</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="6">
         <v>102.7</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="5">
         <v>4.3075000000000001</v>
       </c>
     </row>
@@ -1846,16 +1820,16 @@
       <c r="A53" s="1">
         <v>49</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="6">
         <v>103.9</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="5">
         <v>4.2313999999999998</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="6">
         <v>103.3</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="5">
         <v>4.3456000000000001</v>
       </c>
     </row>
@@ -1863,16 +1837,16 @@
       <c r="A54" s="1">
         <v>50</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="6">
         <v>104.4</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="5">
         <v>4.2676999999999996</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="6">
         <v>103.9</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="5">
         <v>4.3846999999999996</v>
       </c>
     </row>
@@ -1880,16 +1854,16 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="6">
         <v>105</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="5">
         <v>4.3052000000000001</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="6">
         <v>104.5</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="5">
         <v>4.4226000000000001</v>
       </c>
     </row>
@@ -1897,16 +1871,16 @@
       <c r="A56" s="1">
         <v>52</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="6">
         <v>105.6</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="5">
         <v>4.3417000000000003</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="6">
         <v>105</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="5">
         <v>4.4603999999999999</v>
       </c>
     </row>
@@ -1914,16 +1888,16 @@
       <c r="A57" s="1">
         <v>53</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="6">
         <v>106.1</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="5">
         <v>4.3783000000000003</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="6">
         <v>105.6</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="5">
         <v>4.4981</v>
       </c>
     </row>
@@ -1931,16 +1905,16 @@
       <c r="A58" s="1">
         <v>54</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="6">
         <v>106.7</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="5">
         <v>4.4149000000000003</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="6">
         <v>106.2</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="5">
         <v>4.5358000000000001</v>
       </c>
     </row>
@@ -1948,16 +1922,16 @@
       <c r="A59" s="1">
         <v>55</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="6">
         <v>107.2</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="5">
         <v>4.4516999999999998</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="6">
         <v>106.7</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="5">
         <v>4.5734000000000004</v>
       </c>
     </row>
@@ -1965,16 +1939,16 @@
       <c r="A60" s="1">
         <v>56</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="6">
         <v>107.8</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="5">
         <v>4.4885999999999999</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="6">
         <v>107.3</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="5">
         <v>4.6108000000000002</v>
       </c>
     </row>
@@ -1982,16 +1956,16 @@
       <c r="A61" s="1">
         <v>57</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="6">
         <v>108.3</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="5">
         <v>4.5244999999999997</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="6">
         <v>107.8</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="5">
         <v>4.6471999999999998</v>
       </c>
     </row>
@@ -1999,16 +1973,16 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="6">
         <v>108.9</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="5">
         <v>4.5616000000000003</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="6">
         <v>108.4</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="5">
         <v>4.6833999999999998</v>
       </c>
     </row>
@@ -2016,16 +1990,16 @@
       <c r="A63" s="1">
         <v>59</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="6">
         <v>109.4</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="5">
         <v>4.5976999999999997</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="6">
         <v>108.9</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="5">
         <v>4.7195</v>
       </c>
     </row>
@@ -2033,62 +2007,62 @@
       <c r="A64" s="1">
         <v>60</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="6">
         <v>110</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="5">
         <v>4.6338999999999997</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="6">
         <v>109.4</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="5">
         <v>4.7565999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="6"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2096,713 +2070,1079 @@
       <c r="A69" s="1">
         <v>0</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="6">
         <v>3.3</v>
       </c>
-      <c r="D69" s="10">
+      <c r="C69" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D69" s="6">
         <v>3.2</v>
+      </c>
+      <c r="E69">
+        <v>0.44</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>1</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="6">
         <v>4.5</v>
       </c>
-      <c r="D70" s="10">
+      <c r="C70" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D70" s="6">
         <v>4.2</v>
+      </c>
+      <c r="E70">
+        <v>0.54</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="6">
         <v>5.6</v>
       </c>
-      <c r="D71" s="10">
+      <c r="C71" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="D71" s="6">
         <v>5.0999999999999996</v>
+      </c>
+      <c r="E71">
+        <v>0.63</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>3</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="6">
         <v>6.4</v>
       </c>
-      <c r="D72" s="10">
+      <c r="C72" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="D72" s="6">
         <v>5.8</v>
+      </c>
+      <c r="E72">
+        <v>0.71</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>4</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="6">
         <v>7</v>
       </c>
-      <c r="D73" s="10">
+      <c r="C73" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="D73" s="6">
         <v>6.4</v>
+      </c>
+      <c r="E73">
+        <v>0.79</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>5</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="6">
         <v>7.5</v>
       </c>
-      <c r="D74" s="10">
+      <c r="C74" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="D74" s="6">
         <v>6.9</v>
+      </c>
+      <c r="E74">
+        <v>0.86</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>6</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="6">
         <v>7.9</v>
       </c>
-      <c r="D75" s="10">
+      <c r="C75" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D75" s="6">
         <v>7.3</v>
+      </c>
+      <c r="E75">
+        <v>0.93</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>7</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D76" s="10">
+      <c r="C76" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="D76" s="6">
         <v>7.6</v>
+      </c>
+      <c r="E76">
+        <v>0.98</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>8</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="6">
         <v>8.6</v>
       </c>
-      <c r="D77" s="10">
+      <c r="C77" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="D77" s="6">
         <v>7.9</v>
+      </c>
+      <c r="E77">
+        <v>1.04</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>9</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="6">
         <v>8.9</v>
       </c>
-      <c r="D78" s="10">
+      <c r="C78" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D78" s="6">
         <v>8.1999999999999993</v>
+      </c>
+      <c r="E78">
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>10</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D79" s="10">
+      <c r="C79" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D79" s="6">
         <v>8.5</v>
+      </c>
+      <c r="E79">
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>11</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="6">
         <v>9.4</v>
       </c>
-      <c r="D80" s="10">
+      <c r="C80" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="D80" s="6">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>12</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="6">
         <v>9.6</v>
       </c>
-      <c r="D81" s="10">
+      <c r="C81" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="D81" s="6">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>13</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="6">
         <v>9.9</v>
       </c>
-      <c r="D82" s="10">
+      <c r="C82" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="D82" s="6">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>14</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="6">
         <v>10.1</v>
       </c>
-      <c r="D83" s="10">
+      <c r="C83" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="D83" s="6">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>15</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="6">
         <v>10.3</v>
       </c>
-      <c r="D84" s="10">
+      <c r="C84" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="D84" s="6">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>16</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="6">
         <v>10.5</v>
       </c>
-      <c r="D85" s="10">
+      <c r="C85" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="D85" s="6">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>17</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="6">
         <v>10.7</v>
       </c>
-      <c r="D86" s="10">
+      <c r="C86" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="D86" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>18</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="6">
         <v>10.9</v>
       </c>
-      <c r="D87" s="10">
+      <c r="C87" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="D87" s="6">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>19</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="6">
         <v>11.1</v>
       </c>
-      <c r="D88" s="10">
+      <c r="C88" s="5">
+        <v>1.44</v>
+      </c>
+      <c r="D88" s="6">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>20</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="6">
         <v>11.3</v>
       </c>
-      <c r="D89" s="10">
+      <c r="C89" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="D89" s="6">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>21</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="6">
         <v>11.5</v>
       </c>
-      <c r="D90" s="10">
+      <c r="C90" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D90" s="6">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>22</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="6">
         <v>11.8</v>
       </c>
-      <c r="D91" s="10">
+      <c r="C91" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="D91" s="6">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>23</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="6">
         <v>12</v>
       </c>
-      <c r="D92" s="10">
+      <c r="C92" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="D92" s="6">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>24</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="6">
         <v>12.2</v>
       </c>
-      <c r="D93" s="10">
+      <c r="C93" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="D93" s="6">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>25</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="6">
         <v>12.4</v>
       </c>
-      <c r="D94" s="10">
+      <c r="C94" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="D94" s="6">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>26</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="6">
         <v>12.5</v>
       </c>
-      <c r="D95" s="10">
+      <c r="C95" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="D95" s="6">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>27</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="6">
         <v>12.7</v>
       </c>
-      <c r="D96" s="10">
+      <c r="C96" s="5">
+        <v>1.66</v>
+      </c>
+      <c r="D96" s="6">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>28</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="6">
         <v>12.9</v>
       </c>
-      <c r="D97" s="10">
+      <c r="C97" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="D97" s="6">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>29</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="6">
         <v>13.1</v>
       </c>
-      <c r="D98" s="10">
+      <c r="C98" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="D98" s="6">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>30</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="6">
         <v>13.3</v>
       </c>
-      <c r="D99" s="10">
+      <c r="C99" s="5">
+        <v>1.72</v>
+      </c>
+      <c r="D99" s="6">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>31</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="6">
         <v>13.5</v>
       </c>
-      <c r="D100" s="10">
+      <c r="C100" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="D100" s="6">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>32</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="6">
         <v>13.7</v>
       </c>
-      <c r="D101" s="10">
+      <c r="C101" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="D101" s="6">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>33</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="6">
         <v>13.8</v>
       </c>
-      <c r="D102" s="10">
+      <c r="C102" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="D102" s="6">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>34</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="6">
         <v>14</v>
       </c>
-      <c r="D103" s="10">
+      <c r="C103" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D103" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>35</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="6">
         <v>14.2</v>
       </c>
-      <c r="D104" s="10">
+      <c r="C104" s="5">
+        <v>1.82</v>
+      </c>
+      <c r="D104" s="6">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>36</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="6">
         <v>14.3</v>
       </c>
-      <c r="D105" s="10">
+      <c r="C105" s="5">
+        <v>1.84</v>
+      </c>
+      <c r="D105" s="6">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>37</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106" s="6">
         <v>14.5</v>
       </c>
-      <c r="D106" s="10">
+      <c r="C106" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="D106" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>38</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107" s="6">
         <v>14.7</v>
       </c>
-      <c r="D107" s="10">
+      <c r="C107" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="D107" s="6">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>39</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="6">
         <v>14.8</v>
       </c>
-      <c r="D108" s="10">
+      <c r="C108" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="D108" s="6">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>40</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="6">
         <v>15</v>
       </c>
-      <c r="D109" s="10">
+      <c r="C109" s="5">
+        <v>1.92</v>
+      </c>
+      <c r="D109" s="6">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>41</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="6">
         <v>15.2</v>
       </c>
-      <c r="D110" s="10">
+      <c r="C110" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="D110" s="6">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="6">
         <v>15.3</v>
       </c>
-      <c r="D111" s="10">
+      <c r="C111" s="5">
+        <v>1.96</v>
+      </c>
+      <c r="D111" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>43</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112" s="6">
         <v>15.5</v>
       </c>
-      <c r="D112" s="10">
+      <c r="C112" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="D112" s="6">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113" s="6">
         <v>15.7</v>
       </c>
-      <c r="D113" s="10">
+      <c r="C113" s="5">
+        <v>2</v>
+      </c>
+      <c r="D113" s="6">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>45</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114" s="6">
         <v>15.8</v>
       </c>
-      <c r="D114" s="10">
+      <c r="C114" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="D114" s="6">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>46</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="6">
         <v>16</v>
       </c>
-      <c r="D115" s="10">
+      <c r="C115" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="D115" s="6">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>47</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116" s="6">
         <v>16.2</v>
       </c>
-      <c r="D116" s="10">
+      <c r="C116" s="5">
+        <v>2.06</v>
+      </c>
+      <c r="D116" s="6">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>48</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="6">
         <v>16.3</v>
       </c>
-      <c r="D117" s="10">
+      <c r="C117" s="5">
+        <v>2.08</v>
+      </c>
+      <c r="D117" s="6">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>49</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="6">
         <v>16.5</v>
       </c>
-      <c r="D118" s="10">
+      <c r="C118" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D118" s="6">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>50</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="6">
         <v>16.7</v>
       </c>
-      <c r="D119" s="10">
+      <c r="C119" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="D119" s="6">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>51</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="6">
         <v>16.8</v>
       </c>
-      <c r="D120" s="10">
+      <c r="C120" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="D120" s="6">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>52</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="6">
         <v>17</v>
       </c>
-      <c r="D121" s="10">
+      <c r="C121" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="D121" s="6">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>53</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122" s="6">
         <v>17.2</v>
       </c>
-      <c r="D122" s="10">
+      <c r="C122" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D122" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>54</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="6">
         <v>17.3</v>
       </c>
-      <c r="D123" s="10">
+      <c r="C123" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D123" s="6">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>55</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B124" s="6">
         <v>17.5</v>
       </c>
-      <c r="D124" s="10">
+      <c r="C124" s="5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D124" s="6">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>56</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="6">
         <v>17.7</v>
       </c>
-      <c r="D125" s="10">
+      <c r="C125" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D125" s="6">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>57</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="6">
         <v>17.8</v>
       </c>
-      <c r="D126" s="10">
+      <c r="C126" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D126" s="6">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>58</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="6">
         <v>18</v>
       </c>
-      <c r="D127" s="10">
+      <c r="C127" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D127" s="6">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>59</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="6">
         <v>18.2</v>
       </c>
-      <c r="D128" s="10">
+      <c r="C128" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D128" s="6">
         <v>18</v>
+      </c>
+      <c r="E128">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>60</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B129" s="6">
         <v>18.3</v>
       </c>
-      <c r="D129" s="10">
+      <c r="C129" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D129" s="6">
         <v>18.2</v>
       </c>
+      <c r="E129">
+        <v>2.3199999999999998</v>
+      </c>
     </row>
     <row r="131" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
-      <c r="O131" s="5"/>
-      <c r="P131" s="5"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13" t="s">
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C133" s="8"/>
+      <c r="C133" s="4"/>
       <c r="D133" s="1" t="s">
         <v>12</v>
       </c>
@@ -2814,13 +3154,13 @@
       <c r="A134" s="1">
         <v>45</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B134" s="6">
         <v>2.5</v>
       </c>
       <c r="D134" s="1">
         <v>45</v>
       </c>
-      <c r="E134" s="10">
+      <c r="E134" s="6">
         <v>2.4</v>
       </c>
     </row>
@@ -2828,13 +3168,13 @@
       <c r="A135" s="1">
         <v>45.5</v>
       </c>
-      <c r="B135" s="10">
+      <c r="B135" s="6">
         <v>2.5</v>
       </c>
       <c r="D135" s="1">
         <v>45.5</v>
       </c>
-      <c r="E135" s="10">
+      <c r="E135" s="6">
         <v>2.5</v>
       </c>
     </row>
@@ -2842,13 +3182,13 @@
       <c r="A136" s="1">
         <v>46</v>
       </c>
-      <c r="B136" s="10">
+      <c r="B136" s="6">
         <v>2.6</v>
       </c>
       <c r="D136" s="1">
         <v>46</v>
       </c>
-      <c r="E136" s="10">
+      <c r="E136" s="6">
         <v>2.6</v>
       </c>
     </row>
@@ -2856,13 +3196,13 @@
       <c r="A137" s="1">
         <v>46.5</v>
       </c>
-      <c r="B137" s="10">
+      <c r="B137" s="6">
         <v>2.7</v>
       </c>
       <c r="D137" s="1">
         <v>46.5</v>
       </c>
-      <c r="E137" s="10">
+      <c r="E137" s="6">
         <v>2.7</v>
       </c>
     </row>
@@ -2870,13 +3210,13 @@
       <c r="A138" s="1">
         <v>47</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B138" s="6">
         <v>2.8</v>
       </c>
       <c r="D138" s="1">
         <v>47</v>
       </c>
-      <c r="E138" s="10">
+      <c r="E138" s="6">
         <v>2.8</v>
       </c>
     </row>
@@ -2884,13 +3224,13 @@
       <c r="A139" s="1">
         <v>47.5</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B139" s="6">
         <v>2.9</v>
       </c>
       <c r="D139" s="1">
         <v>47.5</v>
       </c>
-      <c r="E139" s="10">
+      <c r="E139" s="6">
         <v>2.9</v>
       </c>
     </row>
@@ -2898,13 +3238,13 @@
       <c r="A140" s="1">
         <v>48</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B140" s="6">
         <v>3</v>
       </c>
       <c r="D140" s="1">
         <v>48</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E140" s="6">
         <v>2.9</v>
       </c>
     </row>
@@ -2912,13 +3252,13 @@
       <c r="A141" s="1">
         <v>48.5</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B141" s="6">
         <v>3.1</v>
       </c>
       <c r="D141" s="1">
         <v>48.5</v>
       </c>
-      <c r="E141" s="10">
+      <c r="E141" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2926,13 +3266,13 @@
       <c r="A142" s="1">
         <v>49</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B142" s="6">
         <v>3.2</v>
       </c>
       <c r="D142" s="1">
         <v>49</v>
       </c>
-      <c r="E142" s="10">
+      <c r="E142" s="6">
         <v>3.1</v>
       </c>
     </row>
@@ -2940,13 +3280,13 @@
       <c r="A143" s="1">
         <v>49.5</v>
       </c>
-      <c r="B143" s="10">
+      <c r="B143" s="6">
         <v>3.3</v>
       </c>
       <c r="D143" s="1">
         <v>49.5</v>
       </c>
-      <c r="E143" s="10">
+      <c r="E143" s="6">
         <v>3.2</v>
       </c>
     </row>
@@ -2954,13 +3294,13 @@
       <c r="A144" s="1">
         <v>50</v>
       </c>
-      <c r="B144" s="10">
+      <c r="B144" s="6">
         <v>3.4</v>
       </c>
       <c r="D144" s="1">
         <v>50</v>
       </c>
-      <c r="E144" s="10">
+      <c r="E144" s="6">
         <v>3.3</v>
       </c>
     </row>
@@ -2968,13 +3308,13 @@
       <c r="A145" s="1">
         <v>50.5</v>
       </c>
-      <c r="B145" s="10">
+      <c r="B145" s="6">
         <v>3.5</v>
       </c>
       <c r="D145" s="1">
         <v>50.5</v>
       </c>
-      <c r="E145" s="10">
+      <c r="E145" s="6">
         <v>3.4</v>
       </c>
     </row>
@@ -2982,13 +3322,13 @@
       <c r="A146" s="1">
         <v>51</v>
       </c>
-      <c r="B146" s="10">
+      <c r="B146" s="6">
         <v>3.6</v>
       </c>
       <c r="D146" s="1">
         <v>51</v>
       </c>
-      <c r="E146" s="10">
+      <c r="E146" s="6">
         <v>3.5</v>
       </c>
     </row>
@@ -2996,13 +3336,13 @@
       <c r="A147" s="1">
         <v>51.5</v>
       </c>
-      <c r="B147" s="10">
+      <c r="B147" s="6">
         <v>3.7</v>
       </c>
       <c r="D147" s="1">
         <v>51.5</v>
       </c>
-      <c r="E147" s="10">
+      <c r="E147" s="6">
         <v>3.6</v>
       </c>
     </row>
@@ -3010,13 +3350,13 @@
       <c r="A148" s="1">
         <v>52</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B148" s="6">
         <v>3.8</v>
       </c>
       <c r="D148" s="1">
         <v>52</v>
       </c>
-      <c r="E148" s="10">
+      <c r="E148" s="6">
         <v>3.8</v>
       </c>
     </row>
@@ -3024,13 +3364,13 @@
       <c r="A149" s="1">
         <v>52.5</v>
       </c>
-      <c r="B149" s="10">
+      <c r="B149" s="6">
         <v>3.9</v>
       </c>
       <c r="D149" s="1">
         <v>52.5</v>
       </c>
-      <c r="E149" s="10">
+      <c r="E149" s="6">
         <v>3.9</v>
       </c>
     </row>
@@ -3038,13 +3378,13 @@
       <c r="A150" s="1">
         <v>53</v>
       </c>
-      <c r="B150" s="10">
+      <c r="B150" s="6">
         <v>4</v>
       </c>
       <c r="D150" s="1">
         <v>53</v>
       </c>
-      <c r="E150" s="10">
+      <c r="E150" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3052,13 +3392,13 @@
       <c r="A151" s="1">
         <v>53.5</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B151" s="6">
         <v>4.2</v>
       </c>
       <c r="D151" s="1">
         <v>53.5</v>
       </c>
-      <c r="E151" s="10">
+      <c r="E151" s="6">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -3066,13 +3406,13 @@
       <c r="A152" s="1">
         <v>54</v>
       </c>
-      <c r="B152" s="10">
+      <c r="B152" s="6">
         <v>4.3</v>
       </c>
       <c r="D152" s="1">
         <v>54</v>
       </c>
-      <c r="E152" s="10">
+      <c r="E152" s="6">
         <v>4.3</v>
       </c>
     </row>
@@ -3080,13 +3420,13 @@
       <c r="A153" s="1">
         <v>54.5</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B153" s="6">
         <v>4.4000000000000004</v>
       </c>
       <c r="D153" s="1">
         <v>54.5</v>
       </c>
-      <c r="E153" s="10">
+      <c r="E153" s="6">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -3094,13 +3434,13 @@
       <c r="A154" s="1">
         <v>55</v>
       </c>
-      <c r="B154" s="10">
+      <c r="B154" s="6">
         <v>4.5</v>
       </c>
       <c r="D154" s="1">
         <v>55</v>
       </c>
-      <c r="E154" s="10">
+      <c r="E154" s="6">
         <v>4.5</v>
       </c>
     </row>
@@ -3108,13 +3448,13 @@
       <c r="A155" s="1">
         <v>55.5</v>
       </c>
-      <c r="B155" s="10">
+      <c r="B155" s="6">
         <v>4.7</v>
       </c>
       <c r="D155" s="1">
         <v>55.5</v>
       </c>
-      <c r="E155" s="10">
+      <c r="E155" s="6">
         <v>4.7</v>
       </c>
     </row>
@@ -3122,13 +3462,13 @@
       <c r="A156" s="1">
         <v>56</v>
       </c>
-      <c r="B156" s="10">
+      <c r="B156" s="6">
         <v>4.8</v>
       </c>
       <c r="D156" s="1">
         <v>56</v>
       </c>
-      <c r="E156" s="10">
+      <c r="E156" s="6">
         <v>4.8</v>
       </c>
     </row>
@@ -3136,13 +3476,13 @@
       <c r="A157" s="1">
         <v>56.5</v>
       </c>
-      <c r="B157" s="10">
+      <c r="B157" s="6">
         <v>5</v>
       </c>
       <c r="D157" s="1">
         <v>56.5</v>
       </c>
-      <c r="E157" s="10">
+      <c r="E157" s="6">
         <v>5</v>
       </c>
     </row>
@@ -3150,13 +3490,13 @@
       <c r="A158" s="1">
         <v>57</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B158" s="6">
         <v>5.0999999999999996</v>
       </c>
       <c r="D158" s="1">
         <v>57</v>
       </c>
-      <c r="E158" s="10">
+      <c r="E158" s="6">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -3164,13 +3504,13 @@
       <c r="A159" s="1">
         <v>57.5</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="6">
         <v>5.2</v>
       </c>
       <c r="D159" s="1">
         <v>57.5</v>
       </c>
-      <c r="E159" s="10">
+      <c r="E159" s="6">
         <v>5.3</v>
       </c>
     </row>
@@ -3178,13 +3518,13 @@
       <c r="A160" s="1">
         <v>58</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="6">
         <v>5.4</v>
       </c>
       <c r="D160" s="1">
         <v>58</v>
       </c>
-      <c r="E160" s="10">
+      <c r="E160" s="6">
         <v>5.4</v>
       </c>
     </row>
@@ -3192,13 +3532,13 @@
       <c r="A161" s="1">
         <v>58.5</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="6">
         <v>5.5</v>
       </c>
       <c r="D161" s="1">
         <v>58.5</v>
       </c>
-      <c r="E161" s="10">
+      <c r="E161" s="6">
         <v>5.6</v>
       </c>
     </row>
@@ -3206,13 +3546,13 @@
       <c r="A162" s="1">
         <v>59</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B162" s="6">
         <v>5.6</v>
       </c>
       <c r="D162" s="1">
         <v>59</v>
       </c>
-      <c r="E162" s="10">
+      <c r="E162" s="6">
         <v>5.7</v>
       </c>
     </row>
@@ -3220,13 +3560,13 @@
       <c r="A163" s="1">
         <v>59.5</v>
       </c>
-      <c r="B163" s="10">
+      <c r="B163" s="6">
         <v>5.7</v>
       </c>
       <c r="D163" s="1">
         <v>59.5</v>
       </c>
-      <c r="E163" s="10">
+      <c r="E163" s="6">
         <v>5.9</v>
       </c>
     </row>
@@ -3234,13 +3574,13 @@
       <c r="A164" s="1">
         <v>60</v>
       </c>
-      <c r="B164" s="10">
+      <c r="B164" s="6">
         <v>5.9</v>
       </c>
       <c r="D164" s="1">
         <v>60</v>
       </c>
-      <c r="E164" s="10">
+      <c r="E164" s="6">
         <v>6</v>
       </c>
     </row>
@@ -3248,13 +3588,13 @@
       <c r="A165" s="1">
         <v>60.5</v>
       </c>
-      <c r="B165" s="10">
+      <c r="B165" s="6">
         <v>6</v>
       </c>
       <c r="D165" s="1">
         <v>60.5</v>
       </c>
-      <c r="E165" s="10">
+      <c r="E165" s="6">
         <v>6.1</v>
       </c>
     </row>
@@ -3262,13 +3602,13 @@
       <c r="A166" s="1">
         <v>61</v>
       </c>
-      <c r="B166" s="10">
+      <c r="B166" s="6">
         <v>6.1</v>
       </c>
       <c r="D166" s="1">
         <v>61</v>
       </c>
-      <c r="E166" s="10">
+      <c r="E166" s="6">
         <v>6.3</v>
       </c>
     </row>
@@ -3276,13 +3616,13 @@
       <c r="A167" s="1">
         <v>61.5</v>
       </c>
-      <c r="B167" s="10">
+      <c r="B167" s="6">
         <v>6.3</v>
       </c>
       <c r="D167" s="1">
         <v>61.5</v>
       </c>
-      <c r="E167" s="10">
+      <c r="E167" s="6">
         <v>6.4</v>
       </c>
     </row>
@@ -3290,13 +3630,13 @@
       <c r="A168" s="1">
         <v>62</v>
       </c>
-      <c r="B168" s="10">
+      <c r="B168" s="6">
         <v>6.4</v>
       </c>
       <c r="D168" s="1">
         <v>62</v>
       </c>
-      <c r="E168" s="10">
+      <c r="E168" s="6">
         <v>6.5</v>
       </c>
     </row>
@@ -3304,13 +3644,13 @@
       <c r="A169" s="1">
         <v>62.5</v>
       </c>
-      <c r="B169" s="10">
+      <c r="B169" s="6">
         <v>6.5</v>
       </c>
       <c r="D169" s="1">
         <v>62.5</v>
       </c>
-      <c r="E169" s="10">
+      <c r="E169" s="6">
         <v>6.7</v>
       </c>
     </row>
@@ -3318,13 +3658,13 @@
       <c r="A170" s="1">
         <v>63</v>
       </c>
-      <c r="B170" s="10">
+      <c r="B170" s="6">
         <v>6.6</v>
       </c>
       <c r="D170" s="1">
         <v>63</v>
       </c>
-      <c r="E170" s="10">
+      <c r="E170" s="6">
         <v>6.8</v>
       </c>
     </row>
@@ -3332,13 +3672,13 @@
       <c r="A171" s="1">
         <v>63.5</v>
       </c>
-      <c r="B171" s="10">
+      <c r="B171" s="6">
         <v>6.7</v>
       </c>
       <c r="D171" s="1">
         <v>63.5</v>
       </c>
-      <c r="E171" s="10">
+      <c r="E171" s="6">
         <v>6.9</v>
       </c>
     </row>
@@ -3346,13 +3686,13 @@
       <c r="A172" s="1">
         <v>64</v>
       </c>
-      <c r="B172" s="10">
+      <c r="B172" s="6">
         <v>6.9</v>
       </c>
       <c r="D172" s="1">
         <v>64</v>
       </c>
-      <c r="E172" s="10">
+      <c r="E172" s="6">
         <v>7</v>
       </c>
     </row>
@@ -3360,13 +3700,13 @@
       <c r="A173" s="1">
         <v>64.5</v>
       </c>
-      <c r="B173" s="10">
+      <c r="B173" s="6">
         <v>7</v>
       </c>
       <c r="D173" s="1">
         <v>64.5</v>
       </c>
-      <c r="E173" s="10">
+      <c r="E173" s="6">
         <v>7.1</v>
       </c>
     </row>
@@ -3374,13 +3714,13 @@
       <c r="A174" s="1">
         <v>65</v>
       </c>
-      <c r="B174" s="10">
+      <c r="B174" s="6">
         <v>7.1</v>
       </c>
       <c r="D174" s="1">
         <v>65</v>
       </c>
-      <c r="E174" s="10">
+      <c r="E174" s="6">
         <v>7.3</v>
       </c>
     </row>
@@ -3388,13 +3728,13 @@
       <c r="A175" s="1">
         <v>65.5</v>
       </c>
-      <c r="B175" s="10">
+      <c r="B175" s="6">
         <v>7.2</v>
       </c>
       <c r="D175" s="1">
         <v>65.5</v>
       </c>
-      <c r="E175" s="10">
+      <c r="E175" s="6">
         <v>7.4</v>
       </c>
     </row>
@@ -3402,13 +3742,13 @@
       <c r="A176" s="1">
         <v>66</v>
       </c>
-      <c r="B176" s="10">
+      <c r="B176" s="6">
         <v>7.3</v>
       </c>
       <c r="D176" s="1">
         <v>66</v>
       </c>
-      <c r="E176" s="10">
+      <c r="E176" s="6">
         <v>7.5</v>
       </c>
     </row>
@@ -3416,13 +3756,13 @@
       <c r="A177" s="1">
         <v>66.5</v>
       </c>
-      <c r="B177" s="10">
+      <c r="B177" s="6">
         <v>7.4</v>
       </c>
       <c r="D177" s="1">
         <v>66.5</v>
       </c>
-      <c r="E177" s="10">
+      <c r="E177" s="6">
         <v>7.6</v>
       </c>
     </row>
@@ -3430,13 +3770,13 @@
       <c r="A178" s="1">
         <v>67</v>
       </c>
-      <c r="B178" s="10">
+      <c r="B178" s="6">
         <v>7.5</v>
       </c>
       <c r="D178" s="1">
         <v>67</v>
       </c>
-      <c r="E178" s="10">
+      <c r="E178" s="6">
         <v>7.7</v>
       </c>
     </row>
@@ -3444,13 +3784,13 @@
       <c r="A179" s="1">
         <v>67.5</v>
       </c>
-      <c r="B179" s="10">
+      <c r="B179" s="6">
         <v>7.6</v>
       </c>
       <c r="D179" s="1">
         <v>67.5</v>
       </c>
-      <c r="E179" s="10">
+      <c r="E179" s="6">
         <v>7.9</v>
       </c>
     </row>
@@ -3458,13 +3798,13 @@
       <c r="A180" s="1">
         <v>68</v>
       </c>
-      <c r="B180" s="10">
+      <c r="B180" s="6">
         <v>7.7</v>
       </c>
       <c r="D180" s="1">
         <v>68</v>
       </c>
-      <c r="E180" s="10">
+      <c r="E180" s="6">
         <v>8</v>
       </c>
     </row>
@@ -3472,13 +3812,13 @@
       <c r="A181" s="1">
         <v>68.5</v>
       </c>
-      <c r="B181" s="10">
+      <c r="B181" s="6">
         <v>7.9</v>
       </c>
       <c r="D181" s="1">
         <v>68.5</v>
       </c>
-      <c r="E181" s="10">
+      <c r="E181" s="6">
         <v>8.1</v>
       </c>
     </row>
@@ -3486,13 +3826,13 @@
       <c r="A182" s="1">
         <v>69</v>
       </c>
-      <c r="B182" s="10">
+      <c r="B182" s="6">
         <v>8</v>
       </c>
       <c r="D182" s="1">
         <v>69</v>
       </c>
-      <c r="E182" s="10">
+      <c r="E182" s="6">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -3500,13 +3840,13 @@
       <c r="A183" s="1">
         <v>69.5</v>
       </c>
-      <c r="B183" s="10">
+      <c r="B183" s="6">
         <v>8.1</v>
       </c>
       <c r="D183" s="1">
         <v>69.5</v>
       </c>
-      <c r="E183" s="10">
+      <c r="E183" s="6">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -3514,13 +3854,13 @@
       <c r="A184" s="1">
         <v>70</v>
       </c>
-      <c r="B184" s="10">
+      <c r="B184" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D184" s="1">
         <v>70</v>
       </c>
-      <c r="E184" s="10">
+      <c r="E184" s="6">
         <v>8.4</v>
       </c>
     </row>
@@ -3528,13 +3868,13 @@
       <c r="A185" s="1">
         <v>70.5</v>
       </c>
-      <c r="B185" s="10">
+      <c r="B185" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="D185" s="1">
         <v>70.5</v>
       </c>
-      <c r="E185" s="10">
+      <c r="E185" s="6">
         <v>8.5</v>
       </c>
     </row>
@@ -3542,13 +3882,13 @@
       <c r="A186" s="1">
         <v>71</v>
       </c>
-      <c r="B186" s="10">
+      <c r="B186" s="6">
         <v>8.4</v>
       </c>
       <c r="D186" s="1">
         <v>71</v>
       </c>
-      <c r="E186" s="10">
+      <c r="E186" s="6">
         <v>8.6</v>
       </c>
     </row>
@@ -3556,13 +3896,13 @@
       <c r="A187" s="1">
         <v>71.5</v>
       </c>
-      <c r="B187" s="10">
+      <c r="B187" s="6">
         <v>8.5</v>
       </c>
       <c r="D187" s="1">
         <v>71.5</v>
       </c>
-      <c r="E187" s="10">
+      <c r="E187" s="6">
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -3570,13 +3910,13 @@
       <c r="A188" s="1">
         <v>72</v>
       </c>
-      <c r="B188" s="10">
+      <c r="B188" s="6">
         <v>8.6</v>
       </c>
       <c r="D188" s="1">
         <v>72</v>
       </c>
-      <c r="E188" s="10">
+      <c r="E188" s="6">
         <v>8.9</v>
       </c>
     </row>
@@ -3584,13 +3924,13 @@
       <c r="A189" s="1">
         <v>72.5</v>
       </c>
-      <c r="B189" s="10">
+      <c r="B189" s="6">
         <v>8.6999999999999993</v>
       </c>
       <c r="D189" s="1">
         <v>72.5</v>
       </c>
-      <c r="E189" s="10">
+      <c r="E189" s="6">
         <v>9</v>
       </c>
     </row>
@@ -3598,13 +3938,13 @@
       <c r="A190" s="1">
         <v>73</v>
       </c>
-      <c r="B190" s="10">
+      <c r="B190" s="6">
         <v>8.8000000000000007</v>
       </c>
       <c r="D190" s="1">
         <v>73</v>
       </c>
-      <c r="E190" s="10">
+      <c r="E190" s="6">
         <v>9.1</v>
       </c>
     </row>
@@ -3612,13 +3952,13 @@
       <c r="A191" s="1">
         <v>73.5</v>
       </c>
-      <c r="B191" s="10">
+      <c r="B191" s="6">
         <v>8.9</v>
       </c>
       <c r="D191" s="1">
         <v>73.5</v>
       </c>
-      <c r="E191" s="10">
+      <c r="E191" s="6">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -3626,13 +3966,13 @@
       <c r="A192" s="1">
         <v>74</v>
       </c>
-      <c r="B192" s="10">
+      <c r="B192" s="6">
         <v>9</v>
       </c>
       <c r="D192" s="1">
         <v>74</v>
       </c>
-      <c r="E192" s="10">
+      <c r="E192" s="6">
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -3640,13 +3980,13 @@
       <c r="A193" s="1">
         <v>74.5</v>
       </c>
-      <c r="B193" s="10">
+      <c r="B193" s="6">
         <v>9.1</v>
       </c>
       <c r="D193" s="1">
         <v>74.5</v>
       </c>
-      <c r="E193" s="10">
+      <c r="E193" s="6">
         <v>9.4</v>
       </c>
     </row>
@@ -3654,13 +3994,13 @@
       <c r="A194" s="1">
         <v>75</v>
       </c>
-      <c r="B194" s="10">
+      <c r="B194" s="6">
         <v>9.1</v>
       </c>
       <c r="D194" s="1">
         <v>75</v>
       </c>
-      <c r="E194" s="10">
+      <c r="E194" s="6">
         <v>9.5</v>
       </c>
     </row>
@@ -3668,13 +4008,13 @@
       <c r="A195" s="1">
         <v>75.5</v>
       </c>
-      <c r="B195" s="10">
+      <c r="B195" s="6">
         <v>9.1999999999999993</v>
       </c>
       <c r="D195" s="1">
         <v>75.5</v>
       </c>
-      <c r="E195" s="10">
+      <c r="E195" s="6">
         <v>9.6</v>
       </c>
     </row>
@@ -3682,13 +4022,13 @@
       <c r="A196" s="1">
         <v>76</v>
       </c>
-      <c r="B196" s="10">
+      <c r="B196" s="6">
         <v>9.3000000000000007</v>
       </c>
       <c r="D196" s="1">
         <v>76</v>
       </c>
-      <c r="E196" s="10">
+      <c r="E196" s="6">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -3696,13 +4036,13 @@
       <c r="A197" s="1">
         <v>76.5</v>
       </c>
-      <c r="B197" s="10">
+      <c r="B197" s="6">
         <v>9.4</v>
       </c>
       <c r="D197" s="1">
         <v>76.5</v>
       </c>
-      <c r="E197" s="10">
+      <c r="E197" s="6">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -3710,13 +4050,13 @@
       <c r="A198" s="1">
         <v>77</v>
       </c>
-      <c r="B198" s="10">
+      <c r="B198" s="6">
         <v>9.5</v>
       </c>
       <c r="D198" s="1">
         <v>77</v>
       </c>
-      <c r="E198" s="10">
+      <c r="E198" s="6">
         <v>9.9</v>
       </c>
     </row>
@@ -3724,13 +4064,13 @@
       <c r="A199" s="1">
         <v>77.5</v>
       </c>
-      <c r="B199" s="10">
+      <c r="B199" s="6">
         <v>9.6</v>
       </c>
       <c r="D199" s="1">
         <v>77.5</v>
       </c>
-      <c r="E199" s="10">
+      <c r="E199" s="6">
         <v>10</v>
       </c>
     </row>
@@ -3738,13 +4078,13 @@
       <c r="A200" s="1">
         <v>78</v>
       </c>
-      <c r="B200" s="10">
+      <c r="B200" s="6">
         <v>9.6999999999999993</v>
       </c>
       <c r="D200" s="1">
         <v>78</v>
       </c>
-      <c r="E200" s="10">
+      <c r="E200" s="6">
         <v>10.1</v>
       </c>
     </row>
@@ -3752,13 +4092,13 @@
       <c r="A201" s="1">
         <v>78.5</v>
       </c>
-      <c r="B201" s="10">
+      <c r="B201" s="6">
         <v>9.8000000000000007</v>
       </c>
       <c r="D201" s="1">
         <v>78.5</v>
       </c>
-      <c r="E201" s="10">
+      <c r="E201" s="6">
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -3766,13 +4106,13 @@
       <c r="A202" s="1">
         <v>79</v>
       </c>
-      <c r="B202" s="10">
+      <c r="B202" s="6">
         <v>9.9</v>
       </c>
       <c r="D202" s="1">
         <v>79</v>
       </c>
-      <c r="E202" s="10">
+      <c r="E202" s="6">
         <v>10.3</v>
       </c>
     </row>
@@ -3780,13 +4120,13 @@
       <c r="A203" s="1">
         <v>79.5</v>
       </c>
-      <c r="B203" s="10">
+      <c r="B203" s="6">
         <v>10</v>
       </c>
       <c r="D203" s="1">
         <v>79.5</v>
       </c>
-      <c r="E203" s="10">
+      <c r="E203" s="6">
         <v>10.4</v>
       </c>
     </row>
@@ -3794,13 +4134,13 @@
       <c r="A204" s="1">
         <v>80</v>
       </c>
-      <c r="B204" s="10">
+      <c r="B204" s="6">
         <v>10.1</v>
       </c>
       <c r="D204" s="1">
         <v>80</v>
       </c>
-      <c r="E204" s="10">
+      <c r="E204" s="6">
         <v>10.4</v>
       </c>
     </row>
@@ -3808,13 +4148,13 @@
       <c r="A205" s="1">
         <v>80.5</v>
       </c>
-      <c r="B205" s="10">
+      <c r="B205" s="6">
         <v>10.199999999999999</v>
       </c>
       <c r="D205" s="1">
         <v>80.5</v>
       </c>
-      <c r="E205" s="10">
+      <c r="E205" s="6">
         <v>10.5</v>
       </c>
     </row>
@@ -3822,13 +4162,13 @@
       <c r="A206" s="1">
         <v>81</v>
       </c>
-      <c r="B206" s="10">
+      <c r="B206" s="6">
         <v>10.3</v>
       </c>
       <c r="D206" s="1">
         <v>81</v>
       </c>
-      <c r="E206" s="10">
+      <c r="E206" s="6">
         <v>10.6</v>
       </c>
     </row>
@@ -3836,13 +4176,13 @@
       <c r="A207" s="1">
         <v>81.5</v>
       </c>
-      <c r="B207" s="10">
+      <c r="B207" s="6">
         <v>10.4</v>
       </c>
       <c r="D207" s="1">
         <v>81.5</v>
       </c>
-      <c r="E207" s="10">
+      <c r="E207" s="6">
         <v>10.7</v>
       </c>
     </row>
@@ -3850,13 +4190,13 @@
       <c r="A208" s="1">
         <v>82</v>
       </c>
-      <c r="B208" s="10">
+      <c r="B208" s="6">
         <v>10.5</v>
       </c>
       <c r="D208" s="1">
         <v>82</v>
       </c>
-      <c r="E208" s="10">
+      <c r="E208" s="6">
         <v>10.8</v>
       </c>
     </row>
@@ -3864,13 +4204,13 @@
       <c r="A209" s="1">
         <v>82.5</v>
       </c>
-      <c r="B209" s="10">
+      <c r="B209" s="6">
         <v>10.6</v>
       </c>
       <c r="D209" s="1">
         <v>82.5</v>
       </c>
-      <c r="E209" s="10">
+      <c r="E209" s="6">
         <v>10.9</v>
       </c>
     </row>
@@ -3878,13 +4218,13 @@
       <c r="A210" s="1">
         <v>83</v>
       </c>
-      <c r="B210" s="10">
+      <c r="B210" s="6">
         <v>10.7</v>
       </c>
       <c r="D210" s="1">
         <v>83</v>
       </c>
-      <c r="E210" s="10">
+      <c r="E210" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3892,13 +4232,13 @@
       <c r="A211" s="1">
         <v>83.5</v>
       </c>
-      <c r="B211" s="10">
+      <c r="B211" s="6">
         <v>10.9</v>
       </c>
       <c r="D211" s="1">
         <v>83.5</v>
       </c>
-      <c r="E211" s="10">
+      <c r="E211" s="6">
         <v>11.2</v>
       </c>
     </row>
@@ -3906,13 +4246,13 @@
       <c r="A212" s="1">
         <v>84</v>
       </c>
-      <c r="B212" s="10">
+      <c r="B212" s="6">
         <v>11</v>
       </c>
       <c r="D212" s="1">
         <v>84</v>
       </c>
-      <c r="E212" s="10">
+      <c r="E212" s="6">
         <v>11.3</v>
       </c>
     </row>
@@ -3920,13 +4260,13 @@
       <c r="A213" s="1">
         <v>84.5</v>
       </c>
-      <c r="B213" s="10">
+      <c r="B213" s="6">
         <v>11.1</v>
       </c>
       <c r="D213" s="1">
         <v>84.5</v>
       </c>
-      <c r="E213" s="10">
+      <c r="E213" s="6">
         <v>11.4</v>
       </c>
     </row>
@@ -3934,13 +4274,13 @@
       <c r="A214" s="1">
         <v>85</v>
       </c>
-      <c r="B214" s="10">
+      <c r="B214" s="6">
         <v>11.2</v>
       </c>
       <c r="D214" s="1">
         <v>85</v>
       </c>
-      <c r="E214" s="10">
+      <c r="E214" s="6">
         <v>11.5</v>
       </c>
     </row>
@@ -3948,13 +4288,13 @@
       <c r="A215" s="1">
         <v>85.5</v>
       </c>
-      <c r="B215" s="10">
+      <c r="B215" s="6">
         <v>11.3</v>
       </c>
       <c r="D215" s="1">
         <v>85.5</v>
       </c>
-      <c r="E215" s="10">
+      <c r="E215" s="6">
         <v>11.6</v>
       </c>
     </row>
@@ -3962,13 +4302,13 @@
       <c r="A216" s="1">
         <v>86</v>
       </c>
-      <c r="B216" s="10">
+      <c r="B216" s="6">
         <v>11.5</v>
       </c>
       <c r="D216" s="1">
         <v>86</v>
       </c>
-      <c r="E216" s="10">
+      <c r="E216" s="6">
         <v>11.7</v>
       </c>
     </row>
@@ -3976,13 +4316,13 @@
       <c r="A217" s="1">
         <v>86.5</v>
       </c>
-      <c r="B217" s="10">
+      <c r="B217" s="6">
         <v>11.6</v>
       </c>
       <c r="D217" s="1">
         <v>86.5</v>
       </c>
-      <c r="E217" s="10">
+      <c r="E217" s="6">
         <v>11.9</v>
       </c>
     </row>
@@ -3990,13 +4330,13 @@
       <c r="A218" s="1">
         <v>87</v>
       </c>
-      <c r="B218" s="10">
+      <c r="B218" s="6">
         <v>11.7</v>
       </c>
       <c r="D218" s="1">
         <v>87</v>
       </c>
-      <c r="E218" s="10">
+      <c r="E218" s="6">
         <v>12</v>
       </c>
     </row>
@@ -4004,13 +4344,13 @@
       <c r="A219" s="1">
         <v>87.5</v>
       </c>
-      <c r="B219" s="10">
+      <c r="B219" s="6">
         <v>11.8</v>
       </c>
       <c r="D219" s="1">
         <v>87.5</v>
       </c>
-      <c r="E219" s="10">
+      <c r="E219" s="6">
         <v>12.1</v>
       </c>
     </row>
@@ -4018,13 +4358,13 @@
       <c r="A220" s="1">
         <v>88</v>
       </c>
-      <c r="B220" s="10">
+      <c r="B220" s="6">
         <v>12</v>
       </c>
       <c r="D220" s="1">
         <v>88</v>
       </c>
-      <c r="E220" s="10">
+      <c r="E220" s="6">
         <v>12.2</v>
       </c>
     </row>
@@ -4032,13 +4372,13 @@
       <c r="A221" s="1">
         <v>88.5</v>
       </c>
-      <c r="B221" s="10">
+      <c r="B221" s="6">
         <v>12.1</v>
       </c>
       <c r="D221" s="1">
         <v>88.5</v>
       </c>
-      <c r="E221" s="10">
+      <c r="E221" s="6">
         <v>12.4</v>
       </c>
     </row>
@@ -4046,13 +4386,13 @@
       <c r="A222" s="1">
         <v>89</v>
       </c>
-      <c r="B222" s="10">
+      <c r="B222" s="6">
         <v>12.2</v>
       </c>
       <c r="D222" s="1">
         <v>89</v>
       </c>
-      <c r="E222" s="10">
+      <c r="E222" s="6">
         <v>12.5</v>
       </c>
     </row>
@@ -4060,13 +4400,13 @@
       <c r="A223" s="1">
         <v>89.5</v>
       </c>
-      <c r="B223" s="10">
+      <c r="B223" s="6">
         <v>12.3</v>
       </c>
       <c r="D223" s="1">
         <v>89.5</v>
       </c>
-      <c r="E223" s="10">
+      <c r="E223" s="6">
         <v>12.6</v>
       </c>
     </row>
@@ -4074,13 +4414,13 @@
       <c r="A224" s="1">
         <v>90</v>
       </c>
-      <c r="B224" s="10">
+      <c r="B224" s="6">
         <v>12.5</v>
       </c>
       <c r="D224" s="1">
         <v>90</v>
       </c>
-      <c r="E224" s="10">
+      <c r="E224" s="6">
         <v>12.7</v>
       </c>
     </row>
@@ -4088,13 +4428,13 @@
       <c r="A225" s="1">
         <v>90.5</v>
       </c>
-      <c r="B225" s="10">
+      <c r="B225" s="6">
         <v>12.6</v>
       </c>
       <c r="D225" s="1">
         <v>90.5</v>
       </c>
-      <c r="E225" s="10">
+      <c r="E225" s="6">
         <v>12.8</v>
       </c>
     </row>
@@ -4102,13 +4442,13 @@
       <c r="A226" s="1">
         <v>91</v>
       </c>
-      <c r="B226" s="10">
+      <c r="B226" s="6">
         <v>12.7</v>
       </c>
       <c r="D226" s="1">
         <v>91</v>
       </c>
-      <c r="E226" s="10">
+      <c r="E226" s="6">
         <v>13</v>
       </c>
     </row>
@@ -4116,13 +4456,13 @@
       <c r="A227" s="1">
         <v>91.5</v>
       </c>
-      <c r="B227" s="10">
+      <c r="B227" s="6">
         <v>12.8</v>
       </c>
       <c r="D227" s="1">
         <v>91.5</v>
       </c>
-      <c r="E227" s="10">
+      <c r="E227" s="6">
         <v>13.1</v>
       </c>
     </row>
@@ -4130,13 +4470,13 @@
       <c r="A228" s="1">
         <v>92</v>
       </c>
-      <c r="B228" s="10">
+      <c r="B228" s="6">
         <v>13</v>
       </c>
       <c r="D228" s="1">
         <v>92</v>
       </c>
-      <c r="E228" s="10">
+      <c r="E228" s="6">
         <v>13.2</v>
       </c>
     </row>
@@ -4144,13 +4484,13 @@
       <c r="A229" s="1">
         <v>92.5</v>
       </c>
-      <c r="B229" s="10">
+      <c r="B229" s="6">
         <v>13.1</v>
       </c>
       <c r="D229" s="1">
         <v>92.5</v>
       </c>
-      <c r="E229" s="10">
+      <c r="E229" s="6">
         <v>13.3</v>
       </c>
     </row>
@@ -4158,13 +4498,13 @@
       <c r="A230" s="1">
         <v>93</v>
       </c>
-      <c r="B230" s="10">
+      <c r="B230" s="6">
         <v>13.2</v>
       </c>
       <c r="D230" s="1">
         <v>93</v>
       </c>
-      <c r="E230" s="10">
+      <c r="E230" s="6">
         <v>13.4</v>
       </c>
     </row>
@@ -4172,13 +4512,13 @@
       <c r="A231" s="1">
         <v>93.5</v>
       </c>
-      <c r="B231" s="10">
+      <c r="B231" s="6">
         <v>13.3</v>
       </c>
       <c r="D231" s="1">
         <v>93.5</v>
       </c>
-      <c r="E231" s="10">
+      <c r="E231" s="6">
         <v>13.5</v>
       </c>
     </row>
@@ -4186,13 +4526,13 @@
       <c r="A232" s="1">
         <v>94</v>
       </c>
-      <c r="B232" s="10">
+      <c r="B232" s="6">
         <v>13.5</v>
       </c>
       <c r="D232" s="1">
         <v>94</v>
       </c>
-      <c r="E232" s="10">
+      <c r="E232" s="6">
         <v>13.7</v>
       </c>
     </row>
@@ -4200,13 +4540,13 @@
       <c r="A233" s="1">
         <v>94.5</v>
       </c>
-      <c r="B233" s="10">
+      <c r="B233" s="6">
         <v>13.6</v>
       </c>
       <c r="D233" s="1">
         <v>94.5</v>
       </c>
-      <c r="E233" s="10">
+      <c r="E233" s="6">
         <v>13.8</v>
       </c>
     </row>
@@ -4214,13 +4554,13 @@
       <c r="A234" s="1">
         <v>95</v>
       </c>
-      <c r="B234" s="10">
+      <c r="B234" s="6">
         <v>13.7</v>
       </c>
       <c r="D234" s="1">
         <v>95</v>
       </c>
-      <c r="E234" s="10">
+      <c r="E234" s="6">
         <v>13.9</v>
       </c>
     </row>
@@ -4228,13 +4568,13 @@
       <c r="A235" s="1">
         <v>95.5</v>
       </c>
-      <c r="B235" s="10">
+      <c r="B235" s="6">
         <v>13.8</v>
       </c>
       <c r="D235" s="1">
         <v>95.5</v>
       </c>
-      <c r="E235" s="10">
+      <c r="E235" s="6">
         <v>14</v>
       </c>
     </row>
@@ -4242,13 +4582,13 @@
       <c r="A236" s="1">
         <v>96</v>
       </c>
-      <c r="B236" s="10">
+      <c r="B236" s="6">
         <v>14</v>
       </c>
       <c r="D236" s="1">
         <v>96</v>
       </c>
-      <c r="E236" s="10">
+      <c r="E236" s="6">
         <v>14.1</v>
       </c>
     </row>
@@ -4256,13 +4596,13 @@
       <c r="A237" s="1">
         <v>96.5</v>
       </c>
-      <c r="B237" s="10">
+      <c r="B237" s="6">
         <v>14.1</v>
       </c>
       <c r="D237" s="1">
         <v>96.5</v>
       </c>
-      <c r="E237" s="10">
+      <c r="E237" s="6">
         <v>14.3</v>
       </c>
     </row>
@@ -4270,13 +4610,13 @@
       <c r="A238" s="1">
         <v>97</v>
       </c>
-      <c r="B238" s="10">
+      <c r="B238" s="6">
         <v>14.2</v>
       </c>
       <c r="D238" s="1">
         <v>97</v>
       </c>
-      <c r="E238" s="10">
+      <c r="E238" s="6">
         <v>14.4</v>
       </c>
     </row>
@@ -4284,13 +4624,13 @@
       <c r="A239" s="1">
         <v>97.5</v>
       </c>
-      <c r="B239" s="10">
+      <c r="B239" s="6">
         <v>14.4</v>
       </c>
       <c r="D239" s="1">
         <v>97.5</v>
       </c>
-      <c r="E239" s="10">
+      <c r="E239" s="6">
         <v>14.5</v>
       </c>
     </row>
@@ -4298,13 +4638,13 @@
       <c r="A240" s="1">
         <v>98</v>
       </c>
-      <c r="B240" s="10">
+      <c r="B240" s="6">
         <v>14.5</v>
       </c>
       <c r="D240" s="1">
         <v>98</v>
       </c>
-      <c r="E240" s="10">
+      <c r="E240" s="6">
         <v>14.6</v>
       </c>
     </row>
@@ -4312,13 +4652,13 @@
       <c r="A241" s="1">
         <v>98.5</v>
       </c>
-      <c r="B241" s="10">
+      <c r="B241" s="6">
         <v>14.6</v>
       </c>
       <c r="D241" s="1">
         <v>98.5</v>
       </c>
-      <c r="E241" s="10">
+      <c r="E241" s="6">
         <v>14.8</v>
       </c>
     </row>
@@ -4326,13 +4666,13 @@
       <c r="A242" s="1">
         <v>99</v>
       </c>
-      <c r="B242" s="10">
+      <c r="B242" s="6">
         <v>14.8</v>
       </c>
       <c r="D242" s="1">
         <v>99</v>
       </c>
-      <c r="E242" s="10">
+      <c r="E242" s="6">
         <v>14.9</v>
       </c>
     </row>
@@ -4340,13 +4680,13 @@
       <c r="A243" s="1">
         <v>99.5</v>
       </c>
-      <c r="B243" s="10">
+      <c r="B243" s="6">
         <v>14.9</v>
       </c>
       <c r="D243" s="1">
         <v>99.5</v>
       </c>
-      <c r="E243" s="10">
+      <c r="E243" s="6">
         <v>15</v>
       </c>
     </row>
@@ -4354,13 +4694,13 @@
       <c r="A244" s="1">
         <v>100</v>
       </c>
-      <c r="B244" s="10">
+      <c r="B244" s="6">
         <v>15</v>
       </c>
       <c r="D244" s="1">
         <v>100</v>
       </c>
-      <c r="E244" s="10">
+      <c r="E244" s="6">
         <v>15.2</v>
       </c>
     </row>
@@ -4368,13 +4708,13 @@
       <c r="A245" s="1">
         <v>100.5</v>
       </c>
-      <c r="B245" s="10">
+      <c r="B245" s="6">
         <v>15.2</v>
       </c>
       <c r="D245" s="1">
         <v>100.5</v>
       </c>
-      <c r="E245" s="10">
+      <c r="E245" s="6">
         <v>15.3</v>
       </c>
     </row>
@@ -4382,13 +4722,13 @@
       <c r="A246" s="1">
         <v>101</v>
       </c>
-      <c r="B246" s="10">
+      <c r="B246" s="6">
         <v>15.3</v>
       </c>
       <c r="D246" s="1">
         <v>101</v>
       </c>
-      <c r="E246" s="10">
+      <c r="E246" s="6">
         <v>15.4</v>
       </c>
     </row>
@@ -4396,13 +4736,13 @@
       <c r="A247" s="1">
         <v>101.5</v>
       </c>
-      <c r="B247" s="10">
+      <c r="B247" s="6">
         <v>15.5</v>
       </c>
       <c r="D247" s="1">
         <v>101.5</v>
       </c>
-      <c r="E247" s="10">
+      <c r="E247" s="6">
         <v>15.6</v>
       </c>
     </row>
@@ -4410,13 +4750,13 @@
       <c r="A248" s="1">
         <v>102</v>
       </c>
-      <c r="B248" s="10">
+      <c r="B248" s="6">
         <v>15.6</v>
       </c>
       <c r="D248" s="1">
         <v>102</v>
       </c>
-      <c r="E248" s="10">
+      <c r="E248" s="6">
         <v>15.7</v>
       </c>
     </row>
@@ -4424,13 +4764,13 @@
       <c r="A249" s="1">
         <v>102.5</v>
       </c>
-      <c r="B249" s="10">
+      <c r="B249" s="6">
         <v>15.8</v>
       </c>
       <c r="D249" s="1">
         <v>102.5</v>
       </c>
-      <c r="E249" s="10">
+      <c r="E249" s="6">
         <v>15.9</v>
       </c>
     </row>
@@ -4438,13 +4778,13 @@
       <c r="A250" s="1">
         <v>103</v>
       </c>
-      <c r="B250" s="10">
+      <c r="B250" s="6">
         <v>15.9</v>
       </c>
       <c r="D250" s="1">
         <v>103</v>
       </c>
-      <c r="E250" s="10">
+      <c r="E250" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4452,13 +4792,13 @@
       <c r="A251" s="1">
         <v>103.5</v>
       </c>
-      <c r="B251" s="10">
+      <c r="B251" s="6">
         <v>16.100000000000001</v>
       </c>
       <c r="D251" s="1">
         <v>103.5</v>
       </c>
-      <c r="E251" s="10">
+      <c r="E251" s="6">
         <v>16.2</v>
       </c>
     </row>
@@ -4466,13 +4806,13 @@
       <c r="A252" s="1">
         <v>104</v>
       </c>
-      <c r="B252" s="10">
+      <c r="B252" s="6">
         <v>16.2</v>
       </c>
       <c r="D252" s="1">
         <v>104</v>
       </c>
-      <c r="E252" s="10">
+      <c r="E252" s="6">
         <v>16.3</v>
       </c>
     </row>
@@ -4480,13 +4820,13 @@
       <c r="A253" s="1">
         <v>104.5</v>
       </c>
-      <c r="B253" s="10">
+      <c r="B253" s="6">
         <v>16.399999999999999</v>
       </c>
       <c r="D253" s="1">
         <v>104.5</v>
       </c>
-      <c r="E253" s="10">
+      <c r="E253" s="6">
         <v>16.5</v>
       </c>
     </row>
@@ -4494,13 +4834,13 @@
       <c r="A254" s="1">
         <v>105</v>
       </c>
-      <c r="B254" s="10">
+      <c r="B254" s="6">
         <v>16.5</v>
       </c>
       <c r="D254" s="1">
         <v>105</v>
       </c>
-      <c r="E254" s="10">
+      <c r="E254" s="6">
         <v>16.600000000000001</v>
       </c>
     </row>
@@ -4508,13 +4848,13 @@
       <c r="A255" s="1">
         <v>105.5</v>
       </c>
-      <c r="B255" s="10">
+      <c r="B255" s="6">
         <v>16.7</v>
       </c>
       <c r="D255" s="1">
         <v>105.5</v>
       </c>
-      <c r="E255" s="10">
+      <c r="E255" s="6">
         <v>16.8</v>
       </c>
     </row>
@@ -4522,13 +4862,13 @@
       <c r="A256" s="1">
         <v>106</v>
       </c>
-      <c r="B256" s="10">
+      <c r="B256" s="6">
         <v>16.899999999999999</v>
       </c>
       <c r="D256" s="1">
         <v>106</v>
       </c>
-      <c r="E256" s="10">
+      <c r="E256" s="6">
         <v>16.899999999999999</v>
       </c>
     </row>
@@ -4536,13 +4876,13 @@
       <c r="A257" s="1">
         <v>106.5</v>
       </c>
-      <c r="B257" s="10">
+      <c r="B257" s="6">
         <v>17.100000000000001</v>
       </c>
       <c r="D257" s="1">
         <v>106.5</v>
       </c>
-      <c r="E257" s="10">
+      <c r="E257" s="6">
         <v>17.100000000000001</v>
       </c>
     </row>
@@ -4550,13 +4890,13 @@
       <c r="A258" s="1">
         <v>107</v>
       </c>
-      <c r="B258" s="10">
+      <c r="B258" s="6">
         <v>17.2</v>
       </c>
       <c r="D258" s="1">
         <v>107</v>
       </c>
-      <c r="E258" s="10">
+      <c r="E258" s="6">
         <v>17.3</v>
       </c>
     </row>
@@ -4564,13 +4904,13 @@
       <c r="A259" s="1">
         <v>107.5</v>
       </c>
-      <c r="B259" s="10">
+      <c r="B259" s="6">
         <v>17.399999999999999</v>
       </c>
       <c r="D259" s="1">
         <v>107.5</v>
       </c>
-      <c r="E259" s="10">
+      <c r="E259" s="6">
         <v>17.399999999999999</v>
       </c>
     </row>
@@ -4578,13 +4918,13 @@
       <c r="A260" s="1">
         <v>108</v>
       </c>
-      <c r="B260" s="10">
+      <c r="B260" s="6">
         <v>17.600000000000001</v>
       </c>
       <c r="D260" s="1">
         <v>108</v>
       </c>
-      <c r="E260" s="10">
+      <c r="E260" s="6">
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -4592,13 +4932,13 @@
       <c r="A261" s="1">
         <v>108.5</v>
       </c>
-      <c r="B261" s="10">
+      <c r="B261" s="6">
         <v>17.8</v>
       </c>
       <c r="D261" s="1">
         <v>108.5</v>
       </c>
-      <c r="E261" s="10">
+      <c r="E261" s="6">
         <v>17.8</v>
       </c>
     </row>
@@ -4606,13 +4946,13 @@
       <c r="A262" s="1">
         <v>109</v>
       </c>
-      <c r="B262" s="10">
+      <c r="B262" s="6">
         <v>18</v>
       </c>
       <c r="D262" s="1">
         <v>109</v>
       </c>
-      <c r="E262" s="10">
+      <c r="E262" s="6">
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -4620,13 +4960,13 @@
       <c r="A263" s="1">
         <v>109.5</v>
       </c>
-      <c r="B263" s="10">
+      <c r="B263" s="6">
         <v>18.100000000000001</v>
       </c>
       <c r="D263" s="1">
         <v>109.5</v>
       </c>
-      <c r="E263" s="10">
+      <c r="E263" s="6">
         <v>18.100000000000001</v>
       </c>
     </row>
@@ -4634,13 +4974,13 @@
       <c r="A264" s="1">
         <v>110</v>
       </c>
-      <c r="B264" s="10">
+      <c r="B264" s="6">
         <v>18.3</v>
       </c>
       <c r="D264" s="1">
         <v>110</v>
       </c>
-      <c r="E264" s="10">
+      <c r="E264" s="6">
         <v>18.3</v>
       </c>
     </row>
@@ -4648,13 +4988,13 @@
       <c r="A265" s="1">
         <v>110.5</v>
       </c>
-      <c r="B265" s="10">
+      <c r="B265" s="6">
         <v>18.8</v>
       </c>
       <c r="D265" s="1">
         <v>110.5</v>
       </c>
-      <c r="E265" s="10">
+      <c r="E265" s="6">
         <v>18.7</v>
       </c>
     </row>
@@ -4662,13 +5002,13 @@
       <c r="A266" s="1">
         <v>111</v>
       </c>
-      <c r="B266" s="10">
+      <c r="B266" s="6">
         <v>19</v>
       </c>
       <c r="D266" s="1">
         <v>111</v>
       </c>
-      <c r="E266" s="10">
+      <c r="E266" s="6">
         <v>18.899999999999999</v>
       </c>
     </row>
@@ -4676,13 +5016,13 @@
       <c r="A267" s="1">
         <v>111.5</v>
       </c>
-      <c r="B267" s="10">
+      <c r="B267" s="6">
         <v>19.2</v>
       </c>
       <c r="D267" s="1">
         <v>111.5</v>
       </c>
-      <c r="E267" s="10">
+      <c r="E267" s="6">
         <v>19.100000000000001</v>
       </c>
     </row>
@@ -4690,13 +5030,13 @@
       <c r="A268" s="1">
         <v>112</v>
       </c>
-      <c r="B268" s="10">
+      <c r="B268" s="6">
         <v>19.399999999999999</v>
       </c>
       <c r="D268" s="1">
         <v>112</v>
       </c>
-      <c r="E268" s="10">
+      <c r="E268" s="6">
         <v>19.2</v>
       </c>
     </row>
@@ -4704,13 +5044,13 @@
       <c r="A269" s="1">
         <v>112.5</v>
       </c>
-      <c r="B269" s="10">
+      <c r="B269" s="6">
         <v>19.600000000000001</v>
       </c>
       <c r="D269" s="1">
         <v>112.5</v>
       </c>
-      <c r="E269" s="10">
+      <c r="E269" s="6">
         <v>19.399999999999999</v>
       </c>
     </row>
@@ -4718,13 +5058,13 @@
       <c r="A270" s="1">
         <v>113</v>
       </c>
-      <c r="B270" s="10">
+      <c r="B270" s="6">
         <v>19.8</v>
       </c>
       <c r="D270" s="1">
         <v>113</v>
       </c>
-      <c r="E270" s="10">
+      <c r="E270" s="6">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -4732,13 +5072,13 @@
       <c r="A271" s="1">
         <v>113.5</v>
       </c>
-      <c r="B271" s="10">
+      <c r="B271" s="6">
         <v>20</v>
       </c>
       <c r="D271" s="1">
         <v>113.5</v>
       </c>
-      <c r="E271" s="10">
+      <c r="E271" s="6">
         <v>19.8</v>
       </c>
     </row>
@@ -4746,13 +5086,13 @@
       <c r="A272" s="1">
         <v>114</v>
       </c>
-      <c r="B272" s="10">
+      <c r="B272" s="6">
         <v>20.2</v>
       </c>
       <c r="D272" s="1">
         <v>114</v>
       </c>
-      <c r="E272" s="10">
+      <c r="E272" s="6">
         <v>20</v>
       </c>
     </row>
@@ -4760,13 +5100,13 @@
       <c r="A273" s="1">
         <v>114.5</v>
       </c>
-      <c r="B273" s="10">
+      <c r="B273" s="6">
         <v>20.5</v>
       </c>
       <c r="D273" s="1">
         <v>114.5</v>
       </c>
-      <c r="E273" s="10">
+      <c r="E273" s="6">
         <v>20.2</v>
       </c>
     </row>
@@ -4774,13 +5114,13 @@
       <c r="A274" s="1">
         <v>115</v>
       </c>
-      <c r="B274" s="10">
+      <c r="B274" s="6">
         <v>20.7</v>
       </c>
       <c r="D274" s="1">
         <v>115</v>
       </c>
-      <c r="E274" s="10">
+      <c r="E274" s="6">
         <v>20.399999999999999</v>
       </c>
     </row>
@@ -4788,13 +5128,13 @@
       <c r="A275" s="1">
         <v>115.5</v>
       </c>
-      <c r="B275" s="10">
+      <c r="B275" s="6">
         <v>20.9</v>
       </c>
       <c r="D275" s="1">
         <v>115.5</v>
       </c>
-      <c r="E275" s="10">
+      <c r="E275" s="6">
         <v>20.6</v>
       </c>
     </row>
@@ -4802,13 +5142,13 @@
       <c r="A276" s="1">
         <v>116</v>
       </c>
-      <c r="B276" s="10">
+      <c r="B276" s="6">
         <v>21.1</v>
       </c>
       <c r="D276" s="1">
         <v>116</v>
       </c>
-      <c r="E276" s="10">
+      <c r="E276" s="6">
         <v>20.8</v>
       </c>
     </row>
@@ -4816,13 +5156,13 @@
       <c r="A277" s="1">
         <v>116.5</v>
       </c>
-      <c r="B277" s="10">
+      <c r="B277" s="6">
         <v>21.3</v>
       </c>
       <c r="D277" s="1">
         <v>116.5</v>
       </c>
-      <c r="E277" s="10">
+      <c r="E277" s="6">
         <v>21</v>
       </c>
     </row>
@@ -4830,13 +5170,13 @@
       <c r="A278" s="1">
         <v>117</v>
       </c>
-      <c r="B278" s="10">
+      <c r="B278" s="6">
         <v>21.5</v>
       </c>
       <c r="D278" s="1">
         <v>117</v>
       </c>
-      <c r="E278" s="10">
+      <c r="E278" s="6">
         <v>21.2</v>
       </c>
     </row>
@@ -4844,13 +5184,13 @@
       <c r="A279" s="1">
         <v>117.5</v>
       </c>
-      <c r="B279" s="10">
+      <c r="B279" s="6">
         <v>21.7</v>
       </c>
       <c r="D279" s="1">
         <v>117.5</v>
       </c>
-      <c r="E279" s="10">
+      <c r="E279" s="6">
         <v>21.4</v>
       </c>
     </row>
@@ -4858,13 +5198,13 @@
       <c r="A280" s="1">
         <v>118</v>
       </c>
-      <c r="B280" s="10">
+      <c r="B280" s="6">
         <v>22</v>
       </c>
       <c r="D280" s="1">
         <v>118</v>
       </c>
-      <c r="E280" s="10">
+      <c r="E280" s="6">
         <v>21.6</v>
       </c>
     </row>
@@ -4872,13 +5212,13 @@
       <c r="A281" s="1">
         <v>118.5</v>
       </c>
-      <c r="B281" s="10">
+      <c r="B281" s="6">
         <v>22.2</v>
       </c>
       <c r="D281" s="1">
         <v>118.5</v>
       </c>
-      <c r="E281" s="10">
+      <c r="E281" s="6">
         <v>21.8</v>
       </c>
     </row>
@@ -4886,13 +5226,13 @@
       <c r="A282" s="1">
         <v>119</v>
       </c>
-      <c r="B282" s="10">
+      <c r="B282" s="6">
         <v>22.4</v>
       </c>
       <c r="D282" s="1">
         <v>119</v>
       </c>
-      <c r="E282" s="10">
+      <c r="E282" s="6">
         <v>22</v>
       </c>
     </row>
@@ -4900,13 +5240,13 @@
       <c r="A283" s="1">
         <v>119.5</v>
       </c>
-      <c r="B283" s="10">
+      <c r="B283" s="6">
         <v>22.6</v>
       </c>
       <c r="D283" s="1">
         <v>119.5</v>
       </c>
-      <c r="E283" s="10">
+      <c r="E283" s="6">
         <v>22.2</v>
       </c>
     </row>
@@ -4914,25 +5254,25 @@
       <c r="A284" s="1">
         <v>120</v>
       </c>
-      <c r="B284" s="10">
+      <c r="B284" s="6">
         <v>22.8</v>
       </c>
       <c r="D284" s="1">
         <v>120</v>
       </c>
-      <c r="E284" s="10">
+      <c r="E284" s="6">
         <v>22.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="D132:F132"/>
     <mergeCell ref="A66:S66"/>
     <mergeCell ref="A131:P131"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="D132:F132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
